--- a/data/CS1/case18_2/case18_2_2050.xlsx
+++ b/data/CS1/case18_2/case18_2_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6593C3CD-B0EC-4D36-BD7F-4E6D64487A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CDC8C6-A67A-40C2-B2A5-E2433CC785F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25500" yWindow="4065" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15096,7 +15096,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15112,16 +15112,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
